--- a/Utilities Accural Project v2.xlsx
+++ b/Utilities Accural Project v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sherbulmohammed/Documents/Finance/Projects/Prepayments &amp; Accurals/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26245BF3-07A2-2F40-8C6D-0B02436CF965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6127577-B18E-6A41-8C1F-F7B1F1105FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="2" xr2:uid="{207EE8E7-8196-764E-8105-3B017CA00E3D}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Item</t>
   </si>
@@ -93,6 +93,12 @@
   </si>
   <si>
     <t>Gas Expense</t>
+  </si>
+  <si>
+    <t>Final Gas Expense (P&amp;L)</t>
+  </si>
+  <si>
+    <t>Final Electricity Expense (P&amp;L)</t>
   </si>
 </sst>
 </file>
@@ -189,7 +195,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -205,6 +211,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="42" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,7 +561,7 @@
   <dimension ref="B2:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -618,16 +626,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB48156C-5C22-0F48-BFD0-27D199BACDD3}">
-  <dimension ref="B2:N9"/>
+  <dimension ref="B2:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="3"/>
-    <col min="2" max="2" width="21.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -741,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="6">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="D5" s="6">
         <v>280</v>
@@ -846,75 +854,142 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6">
-        <f>C3-C5</f>
-        <v>300</v>
-      </c>
-      <c r="D9" s="6">
-        <f t="shared" ref="D9:N9" si="2">C9+D3-D5</f>
-        <v>320</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5">
+        <f>Assumptions!$C$3</f>
+        <v>300</v>
+      </c>
+      <c r="D9" s="5">
+        <f>D3+D7</f>
+        <v>280</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:N9" si="2">E3+E7</f>
+        <v>340</v>
+      </c>
+      <c r="F9" s="5">
         <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="F9" s="6">
+        <v>300</v>
+      </c>
+      <c r="G9" s="5">
         <f t="shared" si="2"/>
-        <v>280</v>
-      </c>
-      <c r="G9" s="6">
-        <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="H9" s="6">
+        <v>310</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="2"/>
         <v>285</v>
       </c>
-      <c r="I9" s="6">
-        <f t="shared" si="2"/>
-        <v>295</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="I9" s="5">
         <f t="shared" si="2"/>
         <v>290</v>
       </c>
-      <c r="K9" s="6">
+      <c r="J9" s="5">
         <f t="shared" si="2"/>
-        <v>260</v>
-      </c>
-      <c r="L9" s="6">
+        <v>305</v>
+      </c>
+      <c r="K9" s="5">
         <f t="shared" si="2"/>
-        <v>260</v>
-      </c>
-      <c r="M9" s="6">
+        <v>330</v>
+      </c>
+      <c r="L9" s="5">
         <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="N9" s="6">
+        <v>300</v>
+      </c>
+      <c r="M9" s="5">
         <f t="shared" si="2"/>
-        <v>270</v>
+        <v>290</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="6">
+        <f>C3-C5</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <f t="shared" ref="D11:N11" si="3">C11+D3-D5</f>
+        <v>20</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="3"/>
+        <v>-20</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="3"/>
+        <v>-30</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="3"/>
+        <v>-15</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="3"/>
+        <v>-5</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="3"/>
+        <v>-10</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="3"/>
+        <v>-40</v>
+      </c>
+      <c r="M11" s="6">
+        <f t="shared" si="3"/>
+        <v>-30</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="3"/>
+        <v>-30</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C7:N7">
+  <conditionalFormatting sqref="C7:N9">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -925,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67BD0B22-CC38-C04F-8155-FC91C306C8A9}">
-  <dimension ref="B2:N17"/>
+  <dimension ref="B2:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,104 +1225,171 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="9"/>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5">
+        <f>Assumptions!C4</f>
+        <v>130</v>
+      </c>
+      <c r="D9" s="5">
+        <f>D3+D7</f>
+        <v>115</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:N9" si="1">E3+E7</f>
+        <v>130</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="J9" s="5">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C11" s="6">
         <f>C3-C5</f>
         <v>130</v>
       </c>
-      <c r="D9" s="6">
-        <f>C9+D3-D5</f>
+      <c r="D11" s="6">
+        <f>C11+D3-D5</f>
         <v>145</v>
       </c>
-      <c r="E9" s="6">
-        <f>D9+E3-E5</f>
+      <c r="E11" s="6">
+        <f>D11+E3-E5</f>
         <v>145</v>
       </c>
-      <c r="F9" s="6">
-        <f>E9+F3-F5</f>
+      <c r="F11" s="6">
+        <f>E11+F3-F5</f>
         <v>150</v>
       </c>
-      <c r="G9" s="6">
-        <f t="shared" ref="D9:N9" si="1">F9+G3-G5</f>
+      <c r="G11" s="6">
+        <f t="shared" ref="G11:N11" si="2">F11+G3-G5</f>
         <v>160</v>
       </c>
-      <c r="H9" s="6">
-        <f t="shared" si="1"/>
+      <c r="H11" s="6">
+        <f t="shared" si="2"/>
         <v>175</v>
       </c>
-      <c r="I9" s="6">
-        <f t="shared" si="1"/>
+      <c r="I11" s="6">
+        <f t="shared" si="2"/>
         <v>187</v>
       </c>
-      <c r="J9" s="6">
-        <f t="shared" si="1"/>
+      <c r="J11" s="6">
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="K9" s="6">
-        <f t="shared" si="1"/>
+      <c r="K11" s="6">
+        <f t="shared" si="2"/>
         <v>182</v>
       </c>
-      <c r="L9" s="6">
-        <f t="shared" si="1"/>
+      <c r="L11" s="6">
+        <f t="shared" si="2"/>
         <v>167</v>
       </c>
-      <c r="M9" s="6">
-        <f t="shared" si="1"/>
+      <c r="M11" s="6">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="N9" s="6">
-        <f t="shared" si="1"/>
+      <c r="N11" s="6">
+        <f t="shared" si="2"/>
         <v>112</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="2" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="11" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="11" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C19" s="3" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C7:N7">
+  <conditionalFormatting sqref="C7:N9">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
